--- a/Finflux Automation Excels/Client/5038-Nabkisan-Componding-penality-Charge-loan-Disb2ndTranche.xlsx
+++ b/Finflux Automation Excels/Client/5038-Nabkisan-Componding-penality-Charge-loan-Disb2ndTranche.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +185,29 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -228,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,7 +272,17 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -579,7 +612,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +657,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>583.36</v>
+        <v>583.42999999999995</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -636,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>583.36</v>
+        <v>583.42999999999995</v>
       </c>
       <c r="F3" s="5">
         <v>218.13</v>
@@ -692,7 +725,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,13 +1259,13 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5">
-        <v>835.73</v>
+        <v>835.72</v>
       </c>
       <c r="G5" s="6">
-        <v>2489.66</v>
+        <v>2489.67</v>
       </c>
       <c r="H5" s="5">
-        <v>51.99</v>
+        <v>52</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -1300,13 +1333,13 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5">
-        <v>828.6</v>
+        <v>828.54</v>
       </c>
       <c r="G7" s="6">
-        <v>6661.06</v>
+        <v>6661.13</v>
       </c>
       <c r="H7" s="5">
-        <v>59.12</v>
+        <v>59.18</v>
       </c>
       <c r="I7" s="5">
         <v>0</v>
@@ -1348,7 +1381,7 @@
         <v>793.51</v>
       </c>
       <c r="G8" s="6">
-        <v>5867.55</v>
+        <v>5867.62</v>
       </c>
       <c r="H8" s="5">
         <v>94.21</v>
@@ -1393,7 +1426,7 @@
         <v>788.32</v>
       </c>
       <c r="G9" s="6">
-        <v>5079.2299999999996</v>
+        <v>5079.3</v>
       </c>
       <c r="H9" s="5">
         <v>99.4</v>
@@ -1438,7 +1471,7 @@
         <v>837.63</v>
       </c>
       <c r="G10" s="6">
-        <v>4241.6000000000004</v>
+        <v>4241.67</v>
       </c>
       <c r="H10" s="5">
         <v>50.09</v>
@@ -1483,7 +1516,7 @@
         <v>844.5</v>
       </c>
       <c r="G11" s="6">
-        <v>3397.1</v>
+        <v>3397.17</v>
       </c>
       <c r="H11" s="5">
         <v>43.22</v>
@@ -1528,7 +1561,7 @@
         <v>854.22</v>
       </c>
       <c r="G12" s="6">
-        <v>2542.88</v>
+        <v>2542.9499999999998</v>
       </c>
       <c r="H12" s="5">
         <v>33.5</v>
@@ -1573,7 +1606,7 @@
         <v>861.82</v>
       </c>
       <c r="G13" s="6">
-        <v>1681.06</v>
+        <v>1681.13</v>
       </c>
       <c r="H13" s="5">
         <v>25.9</v>
@@ -1618,7 +1651,7 @@
         <v>870.6</v>
       </c>
       <c r="G14" s="5">
-        <v>810.46</v>
+        <v>810.53</v>
       </c>
       <c r="H14" s="5">
         <v>17.12</v>
@@ -1660,7 +1693,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5">
-        <v>810.46</v>
+        <v>810.53</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -1675,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="5">
-        <v>818.44</v>
+        <v>818.51</v>
       </c>
       <c r="L15" s="5">
         <v>0</v>
@@ -1689,7 +1722,7 @@
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5">
-        <v>818.44</v>
+        <v>818.51</v>
       </c>
     </row>
   </sheetData>
@@ -1935,118 +1968,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="11">
         <v>41978</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="11">
         <v>42009</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
